--- a/analysis/Summary.xlsx
+++ b/analysis/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/naufal_hardiansyah_binus_edu/Documents/Documents/UNMC/Artificial Intelligence Methods/Project_/Bin-Packing-Problem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/naufal_hardiansyah_binus_edu/Documents/Documents/UNMC/Artificial Intelligence Methods/Project_/Bin-Packing-Problem/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59498A66-809D-43BB-BBD7-6024243EEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{59498A66-809D-43BB-BBD7-6024243EEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E067E470-47B0-4E8E-B327-2965CFF95DD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,24 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="summary" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -563,9 +576,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -740,87 +754,139 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>summary!$A$2:$B$21</c:f>
+              <c:f>summary!$A$3:$B$22</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="7">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="8">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="10">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="11">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="13">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="14">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="16">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="17">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>TS</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>MFFD</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>GA</c:v>
-                  </c:pt>
                   <c:pt idx="18">
-                    <c:v>FA</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
                     <c:v>TS</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>TEST0082</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>TEST0030</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="7">
                     <c:v>TEST0044</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="11">
                     <c:v>TEST0014</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="15">
                     <c:v>TEST0049</c:v>
                   </c:pt>
                 </c:lvl>
@@ -829,68 +895,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$C$2:$C$21</c:f>
+              <c:f>summary!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>30.966999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.966999999999999</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>32.633000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.633000000000003</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.9</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>15.433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.433</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>27.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.7</c:v>
+                  <c:v>25.033000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.033000000000001</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>12.032999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.032999999999999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -926,87 +989,139 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>summary!$A$2:$B$21</c:f>
+              <c:f>summary!$A$3:$B$22</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="7">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="8">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="10">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="11">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="13">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="14">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="16">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="17">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>TS</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>MFFD</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>GA</c:v>
-                  </c:pt>
                   <c:pt idx="18">
-                    <c:v>FA</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
                     <c:v>TS</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>TEST0082</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>TEST0030</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="7">
                     <c:v>TEST0044</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="11">
                     <c:v>TEST0014</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="15">
                     <c:v>TEST0049</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1015,68 +1130,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$D$2:$D$21</c:f>
+              <c:f>summary!$D$3:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>95.881</c:v>
+                  <c:v>77.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.457999999999998</c:v>
+                  <c:v>84.775999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.775999999999996</c:v>
+                  <c:v>77.429000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.429000000000002</c:v>
+                  <c:v>96.415999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.415999999999997</c:v>
+                  <c:v>82.781000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.781000000000006</c:v>
+                  <c:v>87.570999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.570999999999998</c:v>
+                  <c:v>84.444000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.444000000000003</c:v>
+                  <c:v>93.325999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.325999999999993</c:v>
+                  <c:v>90.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.798000000000002</c:v>
+                  <c:v>93.988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.988</c:v>
+                  <c:v>91.981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.981999999999999</c:v>
+                  <c:v>95.820999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.820999999999998</c:v>
+                  <c:v>83.081000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.081000000000003</c:v>
+                  <c:v>88.608000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88.608000000000004</c:v>
+                  <c:v>84.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.82</c:v>
+                  <c:v>91.617000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.617000000000004</c:v>
+                  <c:v>91.382000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.382000000000005</c:v>
+                  <c:v>93.594999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93.594999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>94.688999999999993</c:v>
                 </c:pt>
               </c:numCache>
@@ -1089,8 +1201,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1133,93 +1246,145 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$2:$B$21</c15:sqref>
+                          <c15:sqref>summary!$A$3:$B$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="19"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>GA</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>FA</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>TS</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="1">
+                        <c:pt idx="4">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="5">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="3">
+                        <c:pt idx="6">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="7">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="5">
+                        <c:pt idx="8">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="6">
+                        <c:pt idx="9">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="7">
+                        <c:pt idx="10">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="11">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="12">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="10">
+                        <c:pt idx="13">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="11">
+                        <c:pt idx="14">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="12">
+                        <c:pt idx="15">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="13">
+                        <c:pt idx="16">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="14">
+                        <c:pt idx="17">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="15">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>GA</c:v>
-                        </c:pt>
                         <c:pt idx="18">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
                           <c:v>TS</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>TEST0082</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="3">
                           <c:v>TEST0030</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="7">
                           <c:v>TEST0044</c:v>
                         </c:pt>
-                        <c:pt idx="12">
+                        <c:pt idx="11">
                           <c:v>TEST0014</c:v>
                         </c:pt>
-                        <c:pt idx="16">
+                        <c:pt idx="15">
                           <c:v>TEST0049</c:v>
                         </c:pt>
                       </c:lvl>
@@ -1231,71 +1396,68 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$2:$E$21</c15:sqref>
+                          <c15:sqref>summary!$E$3:$E$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
-                        <c:v>0.154</c:v>
+                        <c:v>0.161</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.161</c:v>
+                        <c:v>0.13200000000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.13200000000000001</c:v>
+                        <c:v>0.156</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.156</c:v>
+                        <c:v>0.153</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.153</c:v>
+                        <c:v>0.123</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.123</c:v>
+                        <c:v>9.7000000000000003E-2</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.7000000000000003E-2</c:v>
+                        <c:v>0.109</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.109</c:v>
+                        <c:v>0.24199999999999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.24199999999999999</c:v>
+                        <c:v>0.11700000000000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.11700000000000001</c:v>
+                        <c:v>4.8000000000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>4.8000000000000001E-2</c:v>
+                        <c:v>5.8000000000000003E-2</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>5.8000000000000003E-2</c:v>
+                        <c:v>0.17</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.17</c:v>
+                        <c:v>0.13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.13</c:v>
+                        <c:v>9.1999999999999998E-2</c:v>
                       </c:pt>
                       <c:pt idx="14">
+                        <c:v>8.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.27100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
                         <c:v>9.1999999999999998E-2</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>8.2000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.27100000000000002</c:v>
-                      </c:pt>
                       <c:pt idx="17">
-                        <c:v>9.1999999999999998E-2</c:v>
+                        <c:v>4.7E-2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>4.7E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
                         <c:v>3.7999999999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1314,7 +1476,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>summary!$F$1</c15:sqref>
@@ -1339,93 +1501,145 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$2:$B$21</c15:sqref>
+                          <c15:sqref>summary!$A$3:$B$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="19"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>GA</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>FA</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>TS</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="1">
+                        <c:pt idx="4">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="5">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="3">
+                        <c:pt idx="6">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="7">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="5">
+                        <c:pt idx="8">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="6">
+                        <c:pt idx="9">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="7">
+                        <c:pt idx="10">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="11">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="12">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="10">
+                        <c:pt idx="13">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="11">
+                        <c:pt idx="14">
                           <c:v>TS</c:v>
                         </c:pt>
-                        <c:pt idx="12">
+                        <c:pt idx="15">
                           <c:v>MFFD</c:v>
                         </c:pt>
-                        <c:pt idx="13">
+                        <c:pt idx="16">
                           <c:v>GA</c:v>
                         </c:pt>
-                        <c:pt idx="14">
+                        <c:pt idx="17">
                           <c:v>FA</c:v>
                         </c:pt>
-                        <c:pt idx="15">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>GA</c:v>
-                        </c:pt>
                         <c:pt idx="18">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
                           <c:v>TS</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>TEST0082</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="3">
                           <c:v>TEST0030</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="7">
                           <c:v>TEST0044</c:v>
                         </c:pt>
-                        <c:pt idx="12">
+                        <c:pt idx="11">
                           <c:v>TEST0014</c:v>
                         </c:pt>
-                        <c:pt idx="16">
+                        <c:pt idx="15">
                           <c:v>TEST0049</c:v>
                         </c:pt>
                       </c:lvl>
@@ -1434,10 +1648,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$F$2:$F$21</c15:sqref>
+                          <c15:sqref>summary!$F$3:$F$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1445,63 +1659,60 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
+                        <c:v>27.466999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>226.36699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40.933</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.3000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45.933</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>225.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21.632999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0.1</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>27.466999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>226.36699999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40.933</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.3000000000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>45.933</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>225.5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>21.632999999999999</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.1</c:v>
+                        <c:v>44.832999999999998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>44.832999999999998</c:v>
+                        <c:v>258.06700000000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>258.06700000000001</c:v>
+                        <c:v>13.5</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>13.5</c:v>
+                        <c:v>6.7000000000000004E-2</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>6.7000000000000004E-2</c:v>
+                        <c:v>38.9</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>38.9</c:v>
+                        <c:v>194.7</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>194.7</c:v>
+                        <c:v>19.033000000000001</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>19.033000000000001</c:v>
+                        <c:v>0.33300000000000002</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.33300000000000002</c:v>
+                        <c:v>37.1</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>37.1</c:v>
+                        <c:v>23.6</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>23.6</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
                         <c:v>18.899999999999999</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2173,37 +2384,8 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[summary.xlsx]Sheet2!PivotTable24</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sum of  Avg. Fairness of Packing by Algorithm</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2234,176 +2416,6 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2415,11 +2427,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
+              <c:f>summary!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v> Avg. Fairness of Packing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2434,56 +2446,230 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MFF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>summary!$A$2:$B$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>GA</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>FA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>TS</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>TEST0082</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>TEST0030</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>TEST0044</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>TEST0014</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>TEST0049</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:f>summary!$E$2:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.626</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.442</c:v>
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BE9-44F3-99C0-9ED0F29DD8DD}"/>
+              <c16:uniqueId val="{00000000-C196-447C-9C36-99E18737C19D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2491,11 +2677,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1226000159"/>
-        <c:axId val="1226014559"/>
+        <c:axId val="1326914303"/>
+        <c:axId val="1326904703"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1226000159"/>
+        <c:axId val="1326914303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226014559"/>
+        <c:crossAx val="1326904703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2546,7 +2732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1226014559"/>
+        <c:axId val="1326904703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2752,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2597,49 +2783,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226000159"/>
+        <c:crossAx val="1326914303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2650,6 +2797,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2682,21 +2836,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -4335,14 +4474,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15089</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>35527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>490396</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>112646</xdr:rowOff>
     </xdr:to>
@@ -4408,28 +4547,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>392546</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76589</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50250</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7721321C-DEAF-4D37-9245-6DBD08A22FEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93795CF-BBE5-F9C3-F75F-0E9EC77C1E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4444,10 +4581,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5567,10 +5700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5613,10 +5746,10 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>95.881</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.154</v>
       </c>
       <c r="F2">
@@ -5633,10 +5766,10 @@
       <c r="C3">
         <v>30.966999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>77.457999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.161</v>
       </c>
       <c r="F3">
@@ -5653,10 +5786,10 @@
       <c r="C4">
         <v>27.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>84.775999999999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.13200000000000001</v>
       </c>
       <c r="F4">
@@ -5673,10 +5806,10 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>77.429000000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.156</v>
       </c>
       <c r="F5">
@@ -5696,10 +5829,10 @@
       <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>96.415999999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.153</v>
       </c>
       <c r="F6">
@@ -5716,10 +5849,10 @@
       <c r="C7">
         <v>32.633000000000003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>82.781000000000006</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.123</v>
       </c>
       <c r="F7">
@@ -5736,10 +5869,10 @@
       <c r="C8">
         <v>29.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>87.570999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="F8">
@@ -5756,10 +5889,10 @@
       <c r="C9">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>84.444000000000003</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.109</v>
       </c>
       <c r="F9">
@@ -5779,10 +5912,10 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>93.325999999999993</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.24199999999999999</v>
       </c>
       <c r="F10">
@@ -5799,10 +5932,10 @@
       <c r="C11">
         <v>15.433</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>90.798000000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.11700000000000001</v>
       </c>
       <c r="F11">
@@ -5819,10 +5952,10 @@
       <c r="C12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>93.988</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F12">
@@ -5839,10 +5972,10 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>91.981999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F13">
@@ -5862,10 +5995,10 @@
       <c r="C14">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>95.820999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.17</v>
       </c>
       <c r="F14">
@@ -5882,10 +6015,10 @@
       <c r="C15">
         <v>27.7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>83.081000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0.13</v>
       </c>
       <c r="F15">
@@ -5902,10 +6035,10 @@
       <c r="C16">
         <v>25.033000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>88.608000000000004</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F16">
@@ -5922,10 +6055,10 @@
       <c r="C17">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>84.82</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F17">
@@ -5945,10 +6078,10 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>91.617000000000004</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0.27100000000000002</v>
       </c>
       <c r="F18">
@@ -5965,10 +6098,10 @@
       <c r="C19">
         <v>12.032999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>91.382000000000005</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F19">
@@ -5985,10 +6118,10 @@
       <c r="C20">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>93.594999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>4.7E-2</v>
       </c>
       <c r="F20">
@@ -6005,10 +6138,10 @@
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>94.688999999999993</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F21">
@@ -6016,6 +6149,16 @@
       </c>
       <c r="G21">
         <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f>E4+E8+E12+E16+E20</f>
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D31">
+        <f>E2+E6+E10+E14+E18</f>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Summary.xlsx
+++ b/analysis/Summary.xlsx
@@ -5,22 +5,24 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/naufal_hardiansyah_binus_edu/Documents/Documents/UNMC/Artificial Intelligence Methods/Project_/Bin-Packing-Problem/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Bina Nusantara\Documents\UNMC\Artificial Intelligence Methods\Project_\Bin-Packing-Problem\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{59498A66-809D-43BB-BBD7-6024243EEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E067E470-47B0-4E8E-B327-2965CFF95DD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BDC67-3788-4D02-AD09-AAC4A4AF55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="summary" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Problem</t>
   </si>
@@ -99,6 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,10 +581,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -639,6 +646,433 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Summary.xlsx]Sheet3!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of  Avg. Fairness of Packing by Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFFD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1432-4101-A897-25641B6418CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="829497487"/>
+        <c:axId val="829503727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="829497487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829503727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="829503727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829497487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -814,79 +1248,85 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>summary!$A$3:$B$22</c:f>
+              <c:f>summary!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>TS</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="3">
+                  <c:pt idx="0">
+                    <c:v>TEST0082</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>TEST0030</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>TEST0044</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>TEST0014</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>TEST0049</c:v>
                   </c:pt>
                 </c:lvl>
@@ -895,65 +1335,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$C$3:$C$22</c:f>
+              <c:f>summary!$C$2:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>30.966999999999999</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>31.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>31.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4" formatCode="General">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0.0">
                   <c:v>32.633000000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8" formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.433</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>15.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12" formatCode="General">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.033000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>27.567</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>27.567</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16" formatCode="General">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.032999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -961,7 +1404,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A82C-47AD-820A-ABB542FA3398}"/>
+              <c16:uniqueId val="{00000000-9F5A-4628-96F3-ADF4B3AC8AE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1049,79 +1492,85 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>summary!$A$3:$B$22</c:f>
+              <c:f>summary!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>MFFD</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>TS</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>MFFD</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>GA</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>FA</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>TS</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="3">
+                  <c:pt idx="0">
+                    <c:v>TEST0082</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>TEST0030</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>TEST0044</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>TEST0014</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>TEST0049</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1130,65 +1579,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$D$3:$D$22</c:f>
+              <c:f>summary!$D$2:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>77.457999999999998</c:v>
+                  <c:v>95.881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.775999999999996</c:v>
+                  <c:v>77.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>76.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>77.429000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>96.415999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.781000000000006</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.570999999999998</c:v>
+                  <c:v>82.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>82.611000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>84.444000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>93.325999999999993</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.798000000000002</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.988</c:v>
+                  <c:v>91.575999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>91.186999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>91.981999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>95.820999999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>83.081000000000003</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.608000000000004</c:v>
+                  <c:v>83.488</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>83.465000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>84.82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>91.617000000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.382000000000005</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.594999999999999</c:v>
+                  <c:v>91.617000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>91.617000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>94.688999999999993</c:v>
                 </c:pt>
               </c:numCache>
@@ -1196,7 +1648,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A82C-47AD-820A-ABB542FA3398}"/>
+              <c16:uniqueId val="{00000001-9F5A-4628-96F3-ADF4B3AC8AE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1213,520 +1665,7 @@
         <c:overlap val="-27"/>
         <c:axId val="1217648367"/>
         <c:axId val="1217648847"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v> Avg. Fairness of Packing</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$A$3:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="19"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="3">
-                          <c:v>TEST0030</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>TEST0044</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>TEST0014</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>TEST0049</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$E$3:$E$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>0.161</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.13200000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.156</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.153</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.123</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9.7000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.109</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.24199999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.11700000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>5.8000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.17</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>9.1999999999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>8.2000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.27100000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>9.1999999999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>4.7E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.7999999999999999E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-A82C-47AD-820A-ABB542FA3398}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v> Avg. Execution Time (ms)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$A$3:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="19"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>MFFD</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>GA</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>FA</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>TS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="3">
-                          <c:v>TEST0030</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>TEST0044</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>TEST0014</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>TEST0049</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>summary!$F$3:$F$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>27.466999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>226.36699999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>40.933</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.3000000000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>45.933</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>225.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>21.632999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44.832999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>258.06700000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>13.5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6.7000000000000004E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>38.9</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>194.7</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19.033000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.33300000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>37.1</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>23.6</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18.899999999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-A82C-47AD-820A-ABB542FA3398}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="1217648367"/>
@@ -1911,7 +1850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2141,61 +2080,61 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.466999999999999</c:v>
+                  <c:v>24.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226.36699999999999</c:v>
+                  <c:v>110.06699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.933</c:v>
+                  <c:v>12.433</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.933</c:v>
+                  <c:v>35.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225.5</c:v>
+                  <c:v>156.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.632999999999999</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.867</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44.832999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>258.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.9</c:v>
+                  <c:v>26.632999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194.7</c:v>
+                  <c:v>103.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.033000000000001</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.1</c:v>
+                  <c:v>31.966999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.6</c:v>
+                  <c:v>108.467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,7 +2310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2601,10 +2540,10 @@
                   <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.156</c:v>
@@ -2613,10 +2552,10 @@
                   <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.123</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.109</c:v>
@@ -2625,10 +2564,10 @@
                   <c:v>0.24199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.8000000000000003E-2</c:v>
@@ -2637,10 +2576,10 @@
                   <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.2000000000000003E-2</c:v>
@@ -2649,10 +2588,10 @@
                   <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.7999999999999999E-2</c:v>
@@ -2959,6 +2898,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3463,6 +3442,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3967,7 +4449,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4474,16 +4956,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>35527</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BA631C-A8B6-932B-C890-12CD64C21094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>112646</xdr:rowOff>
+      <xdr:rowOff>49146</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4655,6 +5178,47 @@
     </cacheField>
     <cacheField name="Total Execution Time (ms)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="14008"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Naufal Hardiansyah" refreshedDate="45415.530627083332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{2C13B138-1290-485F-86E8-865B977D2D3E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G21" sheet="summary"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Problem" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Algorithm" numFmtId="0">
+      <sharedItems count="4">
+        <s v="MFFD"/>
+        <s v="GA"/>
+        <s v="FA"/>
+        <s v="TS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Avg. Number of Bins" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11" maxValue="32.700000000000003"/>
+    </cacheField>
+    <cacheField name="Avg. Bin Fullness" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="76.995999999999995" maxValue="96.415999999999997"/>
+    </cacheField>
+    <cacheField name=" Avg. Fairness of Packing" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.7999999999999999E-2" maxValue="0.27100000000000002"/>
+    </cacheField>
+    <cacheField name=" Avg. Execution Time (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.3000000000000002E-2" maxValue="156.03299999999999"/>
+    </cacheField>
+    <cacheField name="Total Execution Time (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4681"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5035,6 +5599,191 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <s v="TEST0082"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="95.881"/>
+    <n v="0.154"/>
+    <n v="0.1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <n v="31.033000000000001"/>
+    <n v="77.335999999999999"/>
+    <n v="0.159"/>
+    <n v="24.7"/>
+    <n v="741"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <n v="31.167000000000002"/>
+    <n v="76.995999999999995"/>
+    <n v="0.16300000000000001"/>
+    <n v="110.06699999999999"/>
+    <n v="3302"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="77.429000000000002"/>
+    <n v="0.156"/>
+    <n v="12.433"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <s v="TEST0030"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="96.415999999999997"/>
+    <n v="0.153"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <n v="32.633000000000003"/>
+    <n v="82.771000000000001"/>
+    <n v="0.128"/>
+    <n v="35.466999999999999"/>
+    <n v="1064"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <n v="32.700000000000003"/>
+    <n v="82.611000000000004"/>
+    <n v="0.128"/>
+    <n v="156.03299999999999"/>
+    <n v="4681"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <n v="31"/>
+    <n v="84.444000000000003"/>
+    <n v="0.109"/>
+    <n v="13.8"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <s v="TEST0044"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="93.325999999999993"/>
+    <n v="0.24199999999999999"/>
+    <n v="6.7000000000000004E-2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <n v="15.3"/>
+    <n v="91.575999999999993"/>
+    <n v="0.10199999999999999"/>
+    <n v="35.299999999999997"/>
+    <n v="1059"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <n v="15.367000000000001"/>
+    <n v="91.186999999999998"/>
+    <n v="0.108"/>
+    <n v="150.86699999999999"/>
+    <n v="4526"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="91.981999999999999"/>
+    <n v="5.8000000000000003E-2"/>
+    <n v="7.867"/>
+    <n v="236"/>
+  </r>
+  <r>
+    <s v="TEST0014"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="95.820999999999998"/>
+    <n v="0.17"/>
+    <n v="0.1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <n v="27.567"/>
+    <n v="83.488"/>
+    <n v="0.11799999999999999"/>
+    <n v="26.632999999999999"/>
+    <n v="799"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <n v="27.567"/>
+    <n v="83.465000000000003"/>
+    <n v="0.124"/>
+    <n v="103.1"/>
+    <n v="3093"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="84.82"/>
+    <n v="8.2000000000000003E-2"/>
+    <n v="10.4"/>
+    <n v="312"/>
+  </r>
+  <r>
+    <s v="TEST0049"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="91.617000000000004"/>
+    <n v="0.27100000000000002"/>
+    <n v="0.33300000000000002"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="91.617000000000004"/>
+    <n v="9.4E-2"/>
+    <n v="31.966999999999999"/>
+    <n v="959"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="91.617000000000004"/>
+    <n v="9.9000000000000005E-2"/>
+    <n v="108.467"/>
+    <n v="3254"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <n v="11"/>
+    <n v="94.688999999999993"/>
+    <n v="3.7999999999999999E-2"/>
+    <n v="11.3"/>
+    <n v="339"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -5244,6 +5993,112 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF801E0-6D21-4766-9194-000C8B9A545B}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="2" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  Avg. Fairness of Packing" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5644,7 +6499,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5699,11 +6554,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA15AC0-1467-47A6-8824-717CA03A86CD}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="G20" sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,7 +6661,7 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>95.881</v>
       </c>
       <c r="E2" s="2">
@@ -5763,40 +6678,40 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>30.966999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>77.457999999999998</v>
+      <c r="C3" s="2">
+        <v>31.033000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>77.335999999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="F3">
-        <v>27.466999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="G3">
-        <v>824</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>27.4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>84.775999999999996</v>
+      <c r="C4" s="3">
+        <v>31.167000000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>76.995999999999995</v>
       </c>
       <c r="E4" s="2">
-        <v>0.13200000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F4">
-        <v>226.36699999999999</v>
+        <v>110.06699999999999</v>
       </c>
       <c r="G4">
-        <v>6791</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5806,17 +6721,17 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>77.429000000000002</v>
       </c>
       <c r="E5" s="2">
         <v>0.156</v>
       </c>
       <c r="F5">
-        <v>40.933</v>
+        <v>12.433</v>
       </c>
       <c r="G5">
-        <v>1228</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -5829,7 +6744,7 @@
       <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>96.415999999999997</v>
       </c>
       <c r="E6" s="2">
@@ -5846,40 +6761,40 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>32.633000000000003</v>
       </c>
-      <c r="D7" s="2">
-        <v>82.781000000000006</v>
+      <c r="D7" s="3">
+        <v>82.771000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>0.123</v>
+        <v>0.128</v>
       </c>
       <c r="F7">
-        <v>45.933</v>
+        <v>35.466999999999999</v>
       </c>
       <c r="G7">
-        <v>1378</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>29.9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>87.570999999999998</v>
+      <c r="C8" s="3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>82.611000000000004</v>
       </c>
       <c r="E8" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>0.128</v>
       </c>
       <c r="F8">
-        <v>225.5</v>
+        <v>156.03299999999999</v>
       </c>
       <c r="G8">
-        <v>6765</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -5889,17 +6804,17 @@
       <c r="C9">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>84.444000000000003</v>
       </c>
       <c r="E9" s="2">
         <v>0.109</v>
       </c>
       <c r="F9">
-        <v>21.632999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="G9">
-        <v>649</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5912,57 +6827,57 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>93.325999999999993</v>
       </c>
       <c r="E10" s="2">
         <v>0.24199999999999999</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>15.433</v>
-      </c>
-      <c r="D11" s="2">
-        <v>90.798000000000002</v>
+      <c r="C11" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>91.575999999999993</v>
       </c>
       <c r="E11" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F11">
-        <v>44.832999999999998</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="G11">
-        <v>1345</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>93.988</v>
+      <c r="C12" s="3">
+        <v>15.367000000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>91.186999999999998</v>
       </c>
       <c r="E12" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="F12">
-        <v>258.06700000000001</v>
+        <v>150.86699999999999</v>
       </c>
       <c r="G12">
-        <v>7742</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -5972,17 +6887,17 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>91.981999999999999</v>
       </c>
       <c r="E13" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F13">
-        <v>13.5</v>
+        <v>7.867</v>
       </c>
       <c r="G13">
-        <v>405</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -5995,57 +6910,57 @@
       <c r="C14">
         <v>24</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>95.820999999999998</v>
       </c>
       <c r="E14" s="2">
         <v>0.17</v>
       </c>
       <c r="F14">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>27.7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>83.081000000000003</v>
+      <c r="C15" s="3">
+        <v>27.567</v>
+      </c>
+      <c r="D15" s="3">
+        <v>83.488</v>
       </c>
       <c r="E15" s="2">
-        <v>0.13</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F15">
-        <v>38.9</v>
+        <v>26.632999999999999</v>
       </c>
       <c r="G15">
-        <v>1167</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>25.033000000000001</v>
-      </c>
-      <c r="D16" s="2">
-        <v>88.608000000000004</v>
+      <c r="C16" s="3">
+        <v>27.567</v>
+      </c>
+      <c r="D16" s="3">
+        <v>83.465000000000003</v>
       </c>
       <c r="E16" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.124</v>
       </c>
       <c r="F16">
-        <v>194.7</v>
+        <v>103.1</v>
       </c>
       <c r="G16">
-        <v>5841</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6055,17 +6970,17 @@
       <c r="C17">
         <v>27</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>84.82</v>
       </c>
       <c r="E17" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F17">
-        <v>19.033000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G17">
-        <v>571</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -6078,7 +6993,7 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>91.617000000000004</v>
       </c>
       <c r="E18" s="2">
@@ -6096,19 +7011,19 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>12.032999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>91.382000000000005</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>91.617000000000004</v>
       </c>
       <c r="E19" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F19">
-        <v>37.1</v>
+        <v>31.966999999999999</v>
       </c>
       <c r="G19">
-        <v>1113</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -6116,19 +7031,19 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2">
-        <v>93.594999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>91.617000000000004</v>
       </c>
       <c r="E20" s="2">
-        <v>4.7E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F20">
-        <v>23.6</v>
+        <v>108.467</v>
       </c>
       <c r="G20">
-        <v>708</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -6138,27 +7053,17 @@
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>94.688999999999993</v>
       </c>
       <c r="E21" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F21">
-        <v>18.899999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="G21">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <f>E4+E8+E12+E16+E20</f>
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D31">
-        <f>E2+E6+E10+E14+E18</f>
-        <v>0.99</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
